--- a/通信関連設計書.xlsx
+++ b/通信関連設計書.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\通信関連資料\UML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\通信関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5DA42-6795-4C8A-BE65-5B24D524073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DA14D6-8E74-4125-9E78-D3155054BC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="5320" windowWidth="28800" windowHeight="18460" activeTab="2" xr2:uid="{2C60880F-BF2B-489A-9587-977FD5021CAF}"/>
+    <workbookView xWindow="5320" yWindow="5320" windowWidth="28800" windowHeight="18460" xr2:uid="{2C60880F-BF2B-489A-9587-977FD5021CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="1" r:id="rId1"/>
     <sheet name="ReadPacketMessage" sheetId="2" r:id="rId2"/>
     <sheet name="WritePacketMessage" sheetId="4" r:id="rId3"/>
-    <sheet name="コーリングシーケンス" sheetId="3" r:id="rId4"/>
+    <sheet name="PacketReader" sheetId="6" r:id="rId4"/>
+    <sheet name="PacketWriter" sheetId="7" r:id="rId5"/>
+    <sheet name="ScannerIoController" sheetId="8" r:id="rId6"/>
+    <sheet name="ScannerIoDeviceFactory" sheetId="9" r:id="rId7"/>
+    <sheet name="コーリングシーケンス" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="2"/>
@@ -224,14 +228,14 @@
   </si>
   <si>
     <t>WritePacketMessage</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>クラス名:</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>WritePacketMessage(
@@ -249,7 +253,7 @@
     <rPh sb="5" eb="7">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>void AddChecksum(int checksum)</t>
@@ -257,11 +261,11 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>checksum</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>送信電文のチェックサムを追加します。</t>
@@ -274,29 +278,29 @@
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>byte[]</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Length、OpeCodeを含んだ送信電文をbyte配列で返却します。</t>
@@ -315,14 +319,212 @@
     <rPh sb="30" eb="32">
       <t>ヘンキャク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PacketReader</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoDevice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ReadPacketMessage Read()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ReadPacketMessage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受信したパケットメッセージを返却します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PacketWriter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PacketWriter(
+                         ScannerIoDevice  scannerIoDevice);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>scannerIoDevice</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool Writer(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>byte[] message);</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoDeviceController()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>string portName);</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>portName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スキャナーを接続しているポート名を指定します。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポートオープンの成功／失敗を返却します。</t>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool CreateAndOpen(</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoDeviceFactory</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoController</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte ReadByte()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bool WriteByte(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>byte writeByte)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>writeByte</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>送信するバイトデータを指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>送信の成功／失敗を返却します。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受信の成功／失敗を返却します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoController(
+                         SerialPort serialPort);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PacketReader(</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ScannerIoController scannerIoController);</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ScannerIoController</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>scannerIoController</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキャナーのＩ／Ｏの制御クラスのインスタンスを指定します。</t>
+    <rPh sb="10" eb="12">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,15 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -382,6 +575,30 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -410,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -529,13 +746,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,9 +792,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -581,85 +824,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,6 +1080,50 @@
         <a:xfrm>
           <a:off x="660400" y="457200"/>
           <a:ext cx="3552825" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFCDE3A-4894-109B-7909-77B2D7CAAFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="4152900"/>
+          <a:ext cx="5791200" cy="6943725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C9BB82-73C2-402A-9970-2EA43DFFAEEB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -1044,7 +1451,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -1056,159 +1463,168 @@
     <col min="6" max="6" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A8" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1222,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD1285F-14D9-4437-B0EA-CB63792FD7BA}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -1238,16 +1654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
@@ -1270,46 +1686,46 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
@@ -1320,63 +1736,61 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A13" s="4" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1"/>
@@ -1387,176 +1801,357 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A18" s="41"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="39"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="7"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A24" s="29"/>
-      <c r="B24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="12" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="32" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:E9"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8202FDF0-1116-46C9-AD2D-9054DAC8D04C}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895B6665-CF68-4583-8DF9-4205315D5177}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.92578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="36"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E58AD6-BD12-4C14-B46B-4CBD47D112D4}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -1568,106 +2163,273 @@
     <col min="6" max="6" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A9" s="4" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="36"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A5244-C938-4EEB-B728-FDD5ED53DF7C}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.92578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="42" t="s">
         <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1676,55 +2438,318 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="35"/>
+      <c r="B13" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="24"/>
+      <c r="B18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="70"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="35"/>
+      <c r="B20" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39107B-3CA4-4489-A1FC-7921DCCD59C3}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.92578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="21"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.6">
-      <c r="A13" s="4" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1"/>
@@ -1735,66 +2760,410 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="35"/>
+      <c r="B18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="36"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F0F730-37EB-4E55-8A75-F968659B7DDD}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.92578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="35"/>
+      <c r="B17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="36"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A23" s="24"/>
+      <c r="B23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
